--- a/biology/Botanique/Stanhopea_radiosa/Stanhopea_radiosa.xlsx
+++ b/biology/Botanique/Stanhopea_radiosa/Stanhopea_radiosa.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stanhopea radiosa, le Stanhopea rayonnant, est une espèce d’orchidée endémique de l’ouest du Mexique, dans le Durango.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les sépales et les pétales sont vert pâle avec des taches rouge pourpre ; les pétales sont plus tachetés et parfois jaune orangé à la base. Le sépale dorsal est en forme de bateau. La lèvre est charnue et jaune à blanche, avec un hypochile jaune orangé en forme de sac. Les cornes sont un peu plates et mesurent environ 2,5 cm de long. L'apex de la lèvre est sous-tronqué, arrondi, ou à 3 pointes. La colonne est mince, avec des ailes hyalines[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les sépales et les pétales sont vert pâle avec des taches rouge pourpre ; les pétales sont plus tachetés et parfois jaune orangé à la base. Le sépale dorsal est en forme de bateau. La lèvre est charnue et jaune à blanche, avec un hypochile jaune orangé en forme de sac. Les cornes sont un peu plates et mesurent environ 2,5 cm de long. L'apex de la lèvre est sous-tronqué, arrondi, ou à 3 pointes. La colonne est mince, avec des ailes hyalines.
 Souvent comparée avec S. sacatta, elle se différencie en ayant une ouverture plus large permettant un pollinisateur plus grand, aussi cette espèce hypochile est plus carrée que S. saccata.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Se trouvant à l’ouest du Mexique, et poussant sur des rochers ou des arbres dans une forêt de feuillus, à une altitude de 750 à 1 500 m.
 </t>
